--- a/助词/助词.xlsx
+++ b/助词/助词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyy\Desktop\JapaneseEveryday\助词\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D93C9-B6FE-45D1-BF6A-B1AFBD729852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA979A4C-BB40-410E-AABF-12882C63FC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="180" windowWidth="14325" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14070" yWindow="75" windowWidth="14325" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>に</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +476,77 @@
   </si>
   <si>
     <t>前接名词，形容词第一连用形（副词化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤会变好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小王变帅了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王さんはかっこよくなった</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>肌がきれい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>なりますよ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>にする</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示选择或决定的事物。意思：要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要喝啤酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ビールにします</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【提示助词】提建议时举出一个例子供对方考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>お寿司でも食べませんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿司之类的吃吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,6 +564,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -822,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85:B86"/>
+    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -834,7 +913,7 @@
     <col min="3" max="3" width="45.25" customWidth="1"/>
     <col min="4" max="4" width="28.125" customWidth="1"/>
     <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
     <col min="7" max="7" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1251,7 +1330,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -1259,7 +1338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -1269,20 +1348,68 @@
       <c r="C85" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>110</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" t="s">
+        <v>122</v>
+      </c>
+      <c r="D90" t="s">
+        <v>123</v>
+      </c>
+      <c r="E90" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:G86"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B67:B70"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/助词/助词.xlsx
+++ b/助词/助词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyy\Desktop\JapaneseEveryday\助词\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA979A4C-BB40-410E-AABF-12882C63FC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC1E484-6C98-42D5-B755-79581E128577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="75" windowWidth="14325" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11850" yWindow="540" windowWidth="14325" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
   <si>
     <t>に</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,19 +475,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前接名词，形容词第一连用形（副词化）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>皮肤会变好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小王变帅了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王さんはかっこよくなった</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,12 +541,86 @@
     <t>寿司之类的吃吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>前接名词（に），形容词第一连用形（副词化）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>王さんはかっこよ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>なった</t>
+    </r>
+  </si>
+  <si>
+    <t>前接名词，较随意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前接名词，或に、と后。接在を、が后将其省略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ませんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议的委婉程度：ましょう &lt; ましょうか &lt; ませんか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示提出建议，或邀请对方（一起）做某事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>でしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示推测，是です的推测形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前接名词或用言简体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>までに</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示完成的最后期限，意思：在…之前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前接时间，まで则表示状态的延续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +638,14 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -901,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1346,19 +1420,19 @@
         <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="F85" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -1374,30 +1448,69 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" t="s">
         <v>117</v>
-      </c>
-      <c r="B88" t="s">
-        <v>118</v>
-      </c>
-      <c r="D88" t="s">
-        <v>120</v>
-      </c>
-      <c r="E88" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90" t="s">
         <v>121</v>
       </c>
-      <c r="B90" t="s">
+      <c r="E90" t="s">
         <v>122</v>
       </c>
-      <c r="D90" t="s">
-        <v>123</v>
-      </c>
-      <c r="E90" t="s">
-        <v>124</v>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" t="s">
+        <v>129</v>
+      </c>
+      <c r="C92" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/助词/助词.xlsx
+++ b/助词/助词.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyy\Desktop\JapaneseEveryday\助词\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC1E484-6C98-42D5-B755-79581E128577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86DF082-F99E-4F6F-8350-F4E46B4C90C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11850" yWindow="540" windowWidth="14325" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7305" yWindow="1725" windowWidth="17910" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <t>に</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -613,6 +613,22 @@
   </si>
   <si>
     <t>前接时间，まで则表示状态的延续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于限定范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前接范围名词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外语中我最喜欢日语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国語で日本語が一番すきです</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1162,19 +1178,33 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
